--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>artlib</t>
   </si>
@@ -32,34 +32,13 @@
     <t>artdesc</t>
   </si>
   <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>paysages</t>
-  </si>
-  <si>
-    <t>hhh</t>
-  </si>
-  <si>
-    <t>gon</t>
+    <t>La Dame à l'hermine</t>
   </si>
   <si>
     <t>personnes</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>Jocanda</t>
-  </si>
-  <si>
-    <t>jocanda</t>
-  </si>
-  <si>
-    <t>ztertdrger</t>
-  </si>
-  <si>
-    <t>rery</t>
+    <t>La Dame à l’hermine est une peinture à l'huile sur panneau de bois de 54 × 39 cm réalisée par Léonard de Vinci à Milan, en 1488.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +378,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,67 +408,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>50.0</v>
+        <v>750.0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>700.0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>900.0</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>50.0</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>artlib</t>
   </si>
@@ -39,6 +39,36 @@
   </si>
   <si>
     <t>La Dame à l’hermine est une peinture à l'huile sur panneau de bois de 54 × 39 cm réalisée par Léonard de Vinci à Milan, en 1488.</t>
+  </si>
+  <si>
+    <t>La Joconde</t>
+  </si>
+  <si>
+    <t>classique</t>
+  </si>
+  <si>
+    <t>Lisa, aussi connue sous le nom de Mona Lisa, Lisa di Antonio Maria Gherardini et de Lisa del Giocondo en italien, est un membre de la famille Gherardini de Florence</t>
+  </si>
+  <si>
+    <t>Gustav Klimt</t>
+  </si>
+  <si>
+    <t>Gustav Klimt, né le 14 juillet 1862 à Baumgarten en Autriche et mort le 6 février 1918 à Vienne.</t>
+  </si>
+  <si>
+    <t>La Nuit étoilée</t>
+  </si>
+  <si>
+    <t>paysages</t>
+  </si>
+  <si>
+    <t>La Nuit étoilée est une peinture de l'artiste peintre postimpressionniste néerlandais Vincent van Gogh.</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>regeprgoerrtre</t>
   </si>
 </sst>
 </file>
@@ -378,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,6 +448,74 @@
       </c>
       <c r="E2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>410.0</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>466.0</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>200.0</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>120.0</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/services.xlsx
+++ b/public/services.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>artlib</t>
   </si>
@@ -69,6 +69,30 @@
   </si>
   <si>
     <t>regeprgoerrtre</t>
+  </si>
+  <si>
+    <t>transylvanian night</t>
+  </si>
+  <si>
+    <t>testy</t>
+  </si>
+  <si>
+    <t>blé aux corbeaux</t>
+  </si>
+  <si>
+    <t>Champ de blé aux corbeaux est une peinture à l'huile réalisée par le peintre Vincent van Gogh en juillet 1890.</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>dgdrhdh</t>
+  </si>
+  <si>
+    <t>Monalisaaa</t>
+  </si>
+  <si>
+    <t>Monalisaaaa</t>
   </si>
 </sst>
 </file>
@@ -408,7 +432,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,6 +540,91 @@
       </c>
       <c r="E6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>112.0</v>
+      </c>
+      <c r="C7">
+        <v>660</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>49.0</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>999.0</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>100.0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>10.0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
